--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0929</v>
+        <v>0.09359999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0504</v>
+        <v>0.0501</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0127</v>
+        <v>-0.0126</v>
       </c>
       <c r="F2" t="n">
         <v>0.0089</v>
@@ -872,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.048</v>
+        <v>0.0476</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.048</v>
+        <v>0.04769999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.3153</v>
@@ -895,7 +895,7 @@
         <v>0.0061</v>
       </c>
       <c r="O2" t="n">
-        <v>0.021</v>
+        <v>0.0209</v>
       </c>
       <c r="P2" t="n">
         <v>-0.0007000000000000001</v>
@@ -1084,88 +1084,77 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>28.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.58%</t>
-        </is>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2794</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0469</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>100 %</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>389941876.09</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>3.895</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>611</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>180665826000</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2436404436000</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>81013704000</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>81013704000</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>160979128184</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>160979128184</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>49.60%</t>
-        </is>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3899418.7609</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.03895</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1806658260</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24364044360</v>
+      </c>
+      <c r="N2" t="n">
+        <v>810137040</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>810137040</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1606352781.41</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1606352781.41</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.496</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
       <c r="B3" t="n">
         <v>28.15</v>
       </c>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -31,12 +31,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,8 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -857,28 +878,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.09359999999999999</v>
+        <v>0.0941</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0501</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0126</v>
+        <v>-0.0125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0089</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0476</v>
+        <v>0.0474</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04769999999999999</v>
+        <v>0.0474</v>
       </c>
       <c r="K2" t="n">
         <v>0.3153</v>
@@ -892,10 +913,10 @@
         <v>0.0558</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0061</v>
+        <v>0.006</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0209</v>
+        <v>0.0208</v>
       </c>
       <c r="P2" t="n">
         <v>-0.0007000000000000001</v>
@@ -913,16 +934,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.09300000000000001</v>
+        <v>0.094</v>
       </c>
       <c r="D3" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1084,15 +1105,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>StatusInvest</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.2794</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0.2777</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
@@ -1102,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0469</v>
+        <v>0.0274</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1113,13 +1134,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>3899418.7609</v>
+        <v>3950113.7217</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03895</v>
+        <v>0.03894</v>
       </c>
       <c r="K2" t="n">
-        <v>6.19</v>
+        <v>5.91</v>
       </c>
       <c r="L2" t="n">
         <v>1806658260</v>
@@ -1140,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1606352781.41</v>
+        <v>1591452612.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1606352781.41</v>
+        <v>1591452612.91</v>
       </c>
       <c r="T2" t="n">
         <v>0.496</v>
@@ -1156,7 +1177,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.15</v>
+        <v>27.78</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1169,7 +1190,7 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>442771000</v>
+        <v>442373000</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
@@ -1179,7 +1200,7 @@
         <v>2436860000000</v>
       </c>
       <c r="R3" t="n">
-        <v>161323000000</v>
+        <v>159203000000</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -556,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,35 +567,54 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Agrupador</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Fonte</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ROA</t>
+          <t>Indicador</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ROIC</t>
+          <t>valor</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr"/>
+          <t>referencia</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1140,7 +1159,7 @@
         <v>0.03894</v>
       </c>
       <c r="K2" t="n">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="L2" t="n">
         <v>1806658260</v>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -69,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -508,16 +509,16 @@
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.3776</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>0.1273</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="1" t="n">
         <v>0.1213</v>
       </c>
     </row>
@@ -556,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +620,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>StatusInvest</t>
+          <t>19.900000000000002%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -627,18 +628,24 @@
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>Rentabilidade</t>
         </is>
       </c>
     </row>
@@ -665,6 +672,230 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>19.900000000000002%</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Margem_EBITDA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>19.900000000000002%</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Margem_Liquida</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>19.900000000000002%</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>19.900000000000002%</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dividend_Yield</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>19.900000000000002%</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Divida_Liquida_EBITDA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>19.900000000000002%</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FCF_Yield</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>19.900000000000002%</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>silvio</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
         </is>
       </c>
     </row>
@@ -1124,15 +1355,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>StatusInvest</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.2777</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -31,30 +31,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,12 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -458,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,54 +475,6 @@
         <is>
           <t>M. Líquida</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0.3776</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.1273</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.1213</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,282 +551,200 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19.900000000000002%</t>
+          <t>Rentabilidade</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>P/L</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
-        </is>
+          <t>M. Liquida</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.1213</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fundamentus</t>
+          <t>Rentabilidade</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.1273</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19.900000000000002%</t>
+          <t>Rentabilidade</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Margem_EBITDA</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
-        </is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19.900000000000002%</t>
+          <t>Rentabilidade</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Margem_Liquida</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
-        </is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.3776</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>19.900000000000002%</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>19.900000000000002%</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Dividend_Yield</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>19.900000000000002%</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Divida_Liquida_EBITDA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>19.900000000000002%</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FCF_Yield</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>19.900000000000002%</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>silvio</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Retorno sobre patrimônio. Maior que 15% é considerado bom.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
     </row>
@@ -910,7 +759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,66 +807,6 @@
         <is>
           <t>Liq. corrente</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1828</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,118 +903,6 @@
         <is>
           <t>P/Ativo Circ. Liq.</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0941</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0498</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.0125</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0474</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0474</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.3153</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-0.0007000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>31</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,107 +1031,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>0.2777</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0274</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3950113.7217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.03894</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1806658260</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24364044360</v>
-      </c>
-      <c r="N2" t="n">
-        <v>810137040</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>810137040</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1591452612.91</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1591452612.91</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.496</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>27.78</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>442373000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>177681000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2436860000000</v>
-      </c>
-      <c r="R3" t="n">
-        <v>159203000000</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -31,12 +31,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,9 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +495,54 @@
         <is>
           <t>M. Líquida</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3776</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1273</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1213</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,252 +567,87 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Agrupador</t>
+          <t>Fonte</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Fonte</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ATIVO</t>
+          <t>ROE</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Indicador</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>valor</t>
+          <t>ROIC</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>referencia</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>StatusInvest</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>M. Liquida</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.1213</v>
+          <t>17.7%</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>M. EBIT</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0.1273</v>
+      <c r="C3" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>M. EBITDA</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>M. Bruta</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.3776</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -759,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +710,66 @@
         <is>
           <t>Liq. corrente</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0007000000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1828</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,6 +866,118 @@
         <is>
           <t>P/Ativo Circ. Liq.</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0941</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0498</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.0125</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3153</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0558</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.0007000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1106,107 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>StatusInvest</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.2777</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0274</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3985440.3868</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.03894</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1806658260</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24364044360</v>
+      </c>
+      <c r="N2" t="n">
+        <v>810137040</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>810137040</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1591452612.91</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1591452612.91</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>442373000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>177681000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2436860000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>159203000000</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -31,30 +31,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,11 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -457,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,54 +475,6 @@
         <is>
           <t>M. Líquida</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3776</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1273</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1213</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,87 +499,1802 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Agrupador</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Fonte</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>ATIVO</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ROA</t>
+          <t>Indicador</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ROIC</t>
+          <t>valor</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr"/>
+          <t>referencia</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>StatusInvest</t>
+          <t>Rentabilidade</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BBAS3</t>
+          <t>StausInvest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17.7%</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>M. Liquida</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1.7293</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fundamentus</t>
+          <t>Rentabilidade</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="D3" t="n">
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1.8874</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2.0487</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.3014</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Dív. líquida/PL</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.0%</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBIT</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>D.Y</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.0701</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.0733</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PEG Ratio</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.0432</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.06480000000000001</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.0619</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.0672</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.07969999999999999</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>P/Ativo</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.0129</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P/SR</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.1268</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P/Ativo Circ. Liq.</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-0.0105</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Valor fora do alcance definido</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Valor atual</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.0949</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TAG ALONG</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>2106798.7245</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Patrimonio liquido</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>864630000</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ativos</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1118980000</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ativo circulante</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>135200000</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Divida bruta</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>131810000</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Disponibilidade</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>89760000</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Divida liquida</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>42050000</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Valor de mercado</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>1035111277.77</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Valor de firma</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1077161277.77</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Free Float</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.6573</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
     </row>
@@ -662,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,66 +2357,6 @@
         <is>
           <t>Liq. corrente</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1828</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,118 +2453,6 @@
         <is>
           <t>P/Ativo Circ. Liq.</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0941</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0498</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.0125</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0474</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0474</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.3153</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-0.0007000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBAS3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>31</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +2466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,175 +2512,69 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tipo</t>
+          <t>TAG ALONG</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>TAG ALONG</t>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>LIQUIDEZ MEDIA DIARIA</t>
+          <t>PARTICIPACAO NO IBOV</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>PARTICIPACAO NO IBOV</t>
+          <t>MERCADO DE OPCOES</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>MERCADO DE OPCOES</t>
+          <t>Patrimonio liquido</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Patrimonio liquido</t>
+          <t>Ativos</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Ativos</t>
+          <t>Ativo circulante</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Ativo circulante</t>
+          <t>Divida bruta</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Divida bruta</t>
+          <t>Disponibilidade</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Disponibilidade</t>
+          <t>Divida liquida</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Divida liquida</t>
+          <t>Valor de mercado</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Valor de mercado</t>
+          <t>Valor de firma</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Valor de firma</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
           <t>Free Float</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>StatusInvest</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0.2777</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0274</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3985440.3868</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.03894</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1806658260</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24364044360</v>
-      </c>
-      <c r="N2" t="n">
-        <v>810137040</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>810137040</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1591452612.91</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1591452612.91</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.496</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>27.78</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>442373000</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>177681000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2436860000000</v>
-      </c>
-      <c r="R3" t="n">
-        <v>159203000000</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +551,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.7293</v>
+        <v>0.1681</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1.8874</v>
+        <v>0.3248</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>2.0487</v>
+        <v>0.4589</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.3014</v>
+        <v>0.5179</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0077</v>
+        <v>0.0037</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0019</v>
+        <v>0.0063</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.0261</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.0701</v>
+        <v>0.2146</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.0733</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1170,11 +1170,11 @@
         </is>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.0432</v>
+        <v>-0.0015</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.0119</v>
+        <v>0.012</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.06480000000000001</v>
+        <v>0.0321</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.0703</v>
+        <v>0.0454</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.0619</v>
+        <v>0.0205</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.0672</v>
+        <v>0.029</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.3065</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.0092</v>
+        <v>0.0044</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.0129</v>
+        <v>0.06570000000000001</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0.1268</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.0105</v>
+        <v>-0.0052</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.0949</v>
+        <v>0.3683</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="E27" s="1" t="n">
-        <v>2106798.7245</v>
+        <v>9350860.9957</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="E28" s="1" t="n">
-        <v>864630000</v>
+        <v>3950530000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="E29" s="1" t="n">
-        <v>1118980000</v>
+        <v>10778490000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="E30" s="1" t="n">
-        <v>135200000</v>
+        <v>1673710000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="E31" s="1" t="n">
-        <v>131810000</v>
+        <v>3221570000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="E32" s="1" t="n">
-        <v>89760000</v>
+        <v>778380000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="E33" s="1" t="n">
-        <v>42050000</v>
+        <v>2443190000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="E34" s="1" t="n">
-        <v>1035111277.77</v>
+        <v>4985071680.1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="E35" s="1" t="n">
-        <v>1077161277.77</v>
+        <v>7428261680.1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2261,38 +2261,2188 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Free Float</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.2144</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0.1831</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0.004699999999999999</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>ITSA4</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>M. Liquida</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1.7293</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1.8874</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>2.0487</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.3014</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Dív. líquida/PL</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBIT</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>D.Y</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0.0696</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0.07389999999999999</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PEG Ratio</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.0436</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.06509999999999999</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>0.0624</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>0.0677</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>0.07969999999999999</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>P/Ativo</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>0.009300000000000001</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>0.0129</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>P/SR</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>0.1278</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>P/Ativo Circ. Liq.</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>-0.0105</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Valor fora do alcance definido</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Valor atual</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>0.09570000000000001</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>TAG ALONG</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>2190571.2576</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Patrimonio liquido</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>864630000</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Ativos</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>1118980000</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Ativo circulante</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>135200000</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Divida bruta</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>131810000</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Disponibilidade</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>89760000</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Divida liquida</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>42050000</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Valor de mercado</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>1041178186.14</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Valor de firma</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>1083228186.14</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>Free Float</t>
         </is>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E75" s="1" t="n">
         <v>0.6573</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>0.1624</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>0.1452</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>0.0007000000000000001</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
         </is>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2506,21 +2506,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>M. Liquida</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>1.7293</v>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2566,11 +2568,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>M. EBIT</t>
+          <t>M. Liquida</t>
         </is>
       </c>
       <c r="E42" s="1" t="n">
-        <v>1.8874</v>
+        <v>1.7293</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2616,11 +2618,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>M. EBITDA</t>
+          <t>M. EBIT</t>
         </is>
       </c>
       <c r="E43" s="1" t="n">
-        <v>2.0487</v>
+        <v>1.8874</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2666,11 +2668,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>M. Bruta</t>
+          <t>M. EBITDA</t>
         </is>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.3014</v>
+        <v>2.0487</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2701,7 +2703,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2716,11 +2718,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Dív. líquida/PL</t>
+          <t>M. Bruta</t>
         </is>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0</v>
+        <v>0.3014</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2766,7 +2768,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBITDA</t>
+          <t>Dív. líquida/PL</t>
         </is>
       </c>
       <c r="E46" s="1" t="n">
@@ -2816,7 +2818,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBIT</t>
+          <t>Dív. líquida/EBITDA</t>
         </is>
       </c>
       <c r="E47" s="1" t="n">
@@ -2866,11 +2868,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PL/Ativos</t>
+          <t>Dív. líquida/EBIT</t>
         </is>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.0077</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2916,11 +2918,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Passivos/Ativos</t>
+          <t>PL/Ativos</t>
         </is>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.0019</v>
+        <v>0.0077</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2966,11 +2968,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Liq. corrente</t>
+          <t>Passivos/Ativos</t>
         </is>
       </c>
       <c r="E50" s="1" t="n">
-        <v>0.0261</v>
+        <v>0.0019</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3001,7 +3003,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3016,11 +3018,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>D.Y</t>
+          <t>Liq. corrente</t>
         </is>
       </c>
       <c r="E51" s="1" t="n">
-        <v>0.0696</v>
+        <v>0.0261</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3066,11 +3068,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>D.Y</t>
         </is>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.0696</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3116,11 +3118,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PEG Ratio</t>
+          <t>P/L</t>
         </is>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.0436</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3166,11 +3168,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>P/VP</t>
+          <t>PEG Ratio</t>
         </is>
       </c>
       <c r="E54" s="1" t="n">
-        <v>0.012</v>
+        <v>0.0436</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3216,11 +3218,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>EV/EBITDA</t>
+          <t>P/VP</t>
         </is>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.06509999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3266,11 +3268,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>EV/EBIT</t>
+          <t>EV/EBITDA</t>
         </is>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.0707</v>
+        <v>0.06509999999999999</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3316,11 +3318,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>P/EBITDA</t>
+          <t>EV/EBIT</t>
         </is>
       </c>
       <c r="E57" s="1" t="n">
-        <v>0.0624</v>
+        <v>0.0707</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3366,11 +3368,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>P/EBIT</t>
+          <t>P/EBITDA</t>
         </is>
       </c>
       <c r="E58" s="1" t="n">
-        <v>0.0677</v>
+        <v>0.0624</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3416,11 +3418,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VPA</t>
+          <t>P/EBIT</t>
         </is>
       </c>
       <c r="E59" s="1" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.0677</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3466,11 +3468,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>P/Ativo</t>
+          <t>VPA</t>
         </is>
       </c>
       <c r="E60" s="1" t="n">
-        <v>0.009300000000000001</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3516,11 +3518,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LPA</t>
+          <t>P/Ativo</t>
         </is>
       </c>
       <c r="E61" s="1" t="n">
-        <v>0.0129</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3566,11 +3568,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>P/SR</t>
+          <t>LPA</t>
         </is>
       </c>
       <c r="E62" s="1" t="n">
-        <v>0.1278</v>
+        <v>0.0129</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3616,15 +3618,15 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>P/Ativo Circ. Liq.</t>
+          <t>P/SR</t>
         </is>
       </c>
       <c r="E63" s="1" t="n">
-        <v>-0.0105</v>
+        <v>0.1278</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Valor fora do alcance definido</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3651,7 +3653,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3666,15 +3668,15 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Valor atual</t>
+          <t>P/Ativo Circ. Liq.</t>
         </is>
       </c>
       <c r="E64" s="1" t="n">
-        <v>0.09570000000000001</v>
+        <v>-0.0105</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3716,11 +3718,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TAG ALONG</t>
+          <t>Valor atual</t>
         </is>
       </c>
       <c r="E65" s="1" t="n">
-        <v>0.8</v>
+        <v>0.09570000000000001</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3766,15 +3768,15 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LIQUIDEZ MEDIA DIARIA</t>
+          <t>TAG ALONG</t>
         </is>
       </c>
       <c r="E66" s="1" t="n">
-        <v>2190571.2576</v>
+        <v>0.8</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3816,11 +3818,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Patrimonio liquido</t>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
       <c r="E67" s="1" t="n">
-        <v>864630000</v>
+        <v>2190571.2576</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3866,11 +3868,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ativos</t>
+          <t>Patrimonio liquido</t>
         </is>
       </c>
       <c r="E68" s="1" t="n">
-        <v>1118980000</v>
+        <v>864630000</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3916,11 +3918,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ativo circulante</t>
+          <t>Ativos</t>
         </is>
       </c>
       <c r="E69" s="1" t="n">
-        <v>135200000</v>
+        <v>1118980000</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3966,11 +3968,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Divida bruta</t>
+          <t>Ativo circulante</t>
         </is>
       </c>
       <c r="E70" s="1" t="n">
-        <v>131810000</v>
+        <v>135200000</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4016,11 +4018,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Disponibilidade</t>
+          <t>Divida bruta</t>
         </is>
       </c>
       <c r="E71" s="1" t="n">
-        <v>89760000</v>
+        <v>131810000</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4066,11 +4068,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Divida liquida</t>
+          <t>Disponibilidade</t>
         </is>
       </c>
       <c r="E72" s="1" t="n">
-        <v>42050000</v>
+        <v>89760000</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4116,11 +4118,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Valor de mercado</t>
+          <t>Divida liquida</t>
         </is>
       </c>
       <c r="E73" s="1" t="n">
-        <v>1041178186.14</v>
+        <v>42050000</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4166,11 +4168,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Valor de firma</t>
+          <t>Valor de mercado</t>
         </is>
       </c>
       <c r="E74" s="1" t="n">
-        <v>1083228186.14</v>
+        <v>1041178186.14</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4216,15 +4218,15 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Free Float</t>
+          <t>Valor de firma</t>
         </is>
       </c>
       <c r="E75" s="1" t="n">
-        <v>0.6573</v>
+        <v>1083228186.14</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4251,7 +4253,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4266,11 +4268,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ROE</t>
+          <t>Free Float</t>
         </is>
       </c>
       <c r="E76" s="1" t="n">
-        <v>0.1624</v>
+        <v>0.6573</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4316,11 +4318,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ROA</t>
+          <t>ROE</t>
         </is>
       </c>
       <c r="E77" s="1" t="n">
-        <v>0.1255</v>
+        <v>0.1624</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4366,11 +4368,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ROIC</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="E78" s="1" t="n">
-        <v>0.1452</v>
+        <v>0.1255</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4416,33 +4418,135 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>0.1452</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>Giro ativos</t>
         </is>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E80" s="1" t="n">
         <v>0.0007000000000000001</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>16.2%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
         </is>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -8,11 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiEficiência" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEndividamento" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndValuation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEmpresa" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,57 +444,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Fonte</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>M. Bruta</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>M. EBITDA</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>M. EBIT</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>M. Líquida</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>Agrupador</t>
         </is>
       </c>
@@ -2558,21 +2503,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>M. Liquida</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>1.7293</v>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>23.200000000000003%</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2608,21 +2555,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>M. EBIT</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>1.8874</v>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>47.0%</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2658,25 +2607,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>M. EBITDA</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>2.0487</v>
+          <t>Margem bruta</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>51.800000000000004%</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2708,25 +2659,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>M. Bruta</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>0.3014</v>
+          <t>Margem EBIT</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>44.6%</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2758,25 +2711,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Dív. líquida/PL</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>0</v>
+          <t>Margem líquida</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>16.900000000000002%</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2803,7 +2758,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2818,11 +2773,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBITDA</t>
+          <t>M. Liquida</t>
         </is>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0</v>
+        <v>1.7293</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2853,7 +2808,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2868,11 +2823,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBIT</t>
+          <t>M. EBIT</t>
         </is>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0</v>
+        <v>1.8874</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2903,7 +2858,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2918,11 +2873,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PL/Ativos</t>
+          <t>M. EBITDA</t>
         </is>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.0077</v>
+        <v>2.0487</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2953,7 +2908,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2968,11 +2923,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Passivos/Ativos</t>
+          <t>M. Bruta</t>
         </is>
       </c>
       <c r="E50" s="1" t="n">
-        <v>0.0019</v>
+        <v>0.3014</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3018,11 +2973,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Liq. corrente</t>
+          <t>Dív. líquida/PL</t>
         </is>
       </c>
       <c r="E51" s="1" t="n">
-        <v>0.0261</v>
+        <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3053,7 +3008,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3068,11 +3023,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>D.Y</t>
+          <t>Dív. líquida/EBITDA</t>
         </is>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.0696</v>
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3103,7 +3058,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3118,11 +3073,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>P/L</t>
+          <t>Dív. líquida/EBIT</t>
         </is>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.07389999999999999</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3153,7 +3108,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3168,11 +3123,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PEG Ratio</t>
+          <t>PL/Ativos</t>
         </is>
       </c>
       <c r="E54" s="1" t="n">
-        <v>0.0436</v>
+        <v>0.0077</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3203,7 +3158,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3218,11 +3173,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>P/VP</t>
+          <t>Passivos/Ativos</t>
         </is>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.012</v>
+        <v>0.0019</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3253,7 +3208,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3268,11 +3223,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>EV/EBITDA</t>
+          <t>Liq. corrente</t>
         </is>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.06509999999999999</v>
+        <v>0.0261</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3318,11 +3273,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EV/EBIT</t>
+          <t>D.Y</t>
         </is>
       </c>
       <c r="E57" s="1" t="n">
-        <v>0.0707</v>
+        <v>0.0696</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3368,11 +3323,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>P/EBITDA</t>
+          <t>P/L</t>
         </is>
       </c>
       <c r="E58" s="1" t="n">
-        <v>0.0624</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3418,11 +3373,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>P/EBIT</t>
+          <t>PEG Ratio</t>
         </is>
       </c>
       <c r="E59" s="1" t="n">
-        <v>0.0677</v>
+        <v>0.0436</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3468,11 +3423,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VPA</t>
+          <t>P/VP</t>
         </is>
       </c>
       <c r="E60" s="1" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3518,11 +3473,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>P/Ativo</t>
+          <t>EV/EBITDA</t>
         </is>
       </c>
       <c r="E61" s="1" t="n">
-        <v>0.009300000000000001</v>
+        <v>0.06509999999999999</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3568,11 +3523,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LPA</t>
+          <t>EV/EBIT</t>
         </is>
       </c>
       <c r="E62" s="1" t="n">
-        <v>0.0129</v>
+        <v>0.0707</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3618,11 +3573,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>P/SR</t>
+          <t>P/EBITDA</t>
         </is>
       </c>
       <c r="E63" s="1" t="n">
-        <v>0.1278</v>
+        <v>0.0624</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3668,15 +3623,15 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>P/Ativo Circ. Liq.</t>
+          <t>P/EBIT</t>
         </is>
       </c>
       <c r="E64" s="1" t="n">
-        <v>-0.0105</v>
+        <v>0.0677</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Valor fora do alcance definido</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3703,7 +3658,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3718,11 +3673,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Valor atual</t>
+          <t>VPA</t>
         </is>
       </c>
       <c r="E65" s="1" t="n">
-        <v>0.09570000000000001</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3753,7 +3708,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3768,11 +3723,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>TAG ALONG</t>
+          <t>P/Ativo</t>
         </is>
       </c>
       <c r="E66" s="1" t="n">
-        <v>0.8</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3803,7 +3758,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3818,15 +3773,15 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LIQUIDEZ MEDIA DIARIA</t>
+          <t>LPA</t>
         </is>
       </c>
       <c r="E67" s="1" t="n">
-        <v>2190571.2576</v>
+        <v>0.0129</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3853,7 +3808,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3868,15 +3823,15 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Patrimonio liquido</t>
+          <t>P/SR</t>
         </is>
       </c>
       <c r="E68" s="1" t="n">
-        <v>864630000</v>
+        <v>0.1278</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3903,7 +3858,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3918,15 +3873,15 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ativos</t>
+          <t>P/Ativo Circ. Liq.</t>
         </is>
       </c>
       <c r="E69" s="1" t="n">
-        <v>1118980000</v>
+        <v>-0.0105</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3968,15 +3923,15 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ativo circulante</t>
+          <t>Valor atual</t>
         </is>
       </c>
       <c r="E70" s="1" t="n">
-        <v>135200000</v>
+        <v>0.09570000000000001</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4018,15 +3973,15 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Divida bruta</t>
+          <t>TAG ALONG</t>
         </is>
       </c>
       <c r="E71" s="1" t="n">
-        <v>131810000</v>
+        <v>0.8</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4068,11 +4023,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Disponibilidade</t>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
       <c r="E72" s="1" t="n">
-        <v>89760000</v>
+        <v>2190571.2576</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4118,11 +4073,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Divida liquida</t>
+          <t>Patrimonio liquido</t>
         </is>
       </c>
       <c r="E73" s="1" t="n">
-        <v>42050000</v>
+        <v>864630000</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4168,11 +4123,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Valor de mercado</t>
+          <t>Ativos</t>
         </is>
       </c>
       <c r="E74" s="1" t="n">
-        <v>1041178186.14</v>
+        <v>1118980000</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4218,11 +4173,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Valor de firma</t>
+          <t>Ativo circulante</t>
         </is>
       </c>
       <c r="E75" s="1" t="n">
-        <v>1083228186.14</v>
+        <v>135200000</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4268,15 +4223,15 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Free Float</t>
+          <t>Divida bruta</t>
         </is>
       </c>
       <c r="E76" s="1" t="n">
-        <v>0.6573</v>
+        <v>131810000</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4303,7 +4258,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4318,15 +4273,15 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ROE</t>
+          <t>Disponibilidade</t>
         </is>
       </c>
       <c r="E77" s="1" t="n">
-        <v>0.1624</v>
+        <v>89760000</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4353,7 +4308,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4368,15 +4323,15 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ROA</t>
+          <t>Divida liquida</t>
         </is>
       </c>
       <c r="E78" s="1" t="n">
-        <v>0.1255</v>
+        <v>42050000</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4403,7 +4358,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4418,15 +4373,15 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ROIC</t>
+          <t>Valor de mercado</t>
         </is>
       </c>
       <c r="E79" s="1" t="n">
-        <v>0.1452</v>
+        <v>1041178186.14</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4453,7 +4408,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4468,15 +4423,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Giro ativos</t>
+          <t>Valor de firma</t>
         </is>
       </c>
       <c r="E80" s="1" t="n">
-        <v>0.0007000000000000001</v>
+        <v>1083228186.14</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4503,330 +4458,562 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Free Float</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>0.6573</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>0.1624</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>0.1452</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>0.0007000000000000001</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>Eficiência</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Fundamentus</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
       </c>
-      <c r="E81" s="1" t="inlineStr">
+      <c r="E86" s="1" t="inlineStr">
         <is>
           <t>16.2%</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Fonte</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Dív. líquida/PL</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Dív. líquida/EBITDA</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Dív. líquida/EBIT</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>PL/Ativos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Passivos/Ativos</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Liq. corrente</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Fonte</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>D.Y</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>P/L</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PEG Ratio</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>P/VP</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>EV/EBITDA</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>EV/EBIT</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>P/EBITDA</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>P/EBIT</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>VPA</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>P/Ativo</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>LPA</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>P/SR</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>P/Ativo Circ. Liq.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Fonte</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ATIVO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Valor atual</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Min. 52 semanas</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Max. 52 semanas</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>dividend Yield</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Valorizacao (12m)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>TAG ALONG</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>LIQUIDEZ MEDIA DIARIA</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>PARTICIPACAO NO IBOV</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>MERCADO DE OPCOES</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Patrimonio liquido</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Ativo circulante</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Divida bruta</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Disponibilidade</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Divida liquida</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Valor de mercado</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Valor de firma</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Free Float</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>0.7000000000000001%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>7.000000000000001%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Margem bruta</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>30.099999999999998%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Margem EBIT</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>8.6%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Margem líquida</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>175.6%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
         </is>
       </c>
     </row>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.2146</v>
+        <v>0.2145</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.05599999999999999</v>
+        <v>0.0561</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.0454</v>
+        <v>0.0453</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.3683</v>
+        <v>0.3681</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="E34" s="1" t="n">
-        <v>4985071680.1</v>
+        <v>4965830016.23</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="E35" s="1" t="n">
-        <v>7428261680.1</v>
+        <v>7409020016.23</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2758,30 +2758,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>M. Liquida</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>1.7293</v>
+          <t>Dívida líquida/Patrim</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>62.0%</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2808,30 +2810,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>M. EBIT</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>1.8874</v>
+          <t>Dívida líquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>83.0%</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2858,26 +2862,28 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>M. EBITDA</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>2.0487</v>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>37.0%</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2908,30 +2914,32 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>M. Bruta</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>0.3014</v>
+          <t>Liquidez corrente</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>94.0%</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2958,30 +2966,32 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Dív. líquida/PL</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>0</v>
+          <t>Dividend Yield</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3008,30 +3018,32 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBITDA</t>
-        </is>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>0</v>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>560.0%</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3058,26 +3070,28 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBIT</t>
-        </is>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>0</v>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>121.0%</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3108,26 +3122,28 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PL/Ativos</t>
-        </is>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>0.0077</v>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>244.0%</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3158,30 +3174,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Passivos/Ativos</t>
-        </is>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>0.0019</v>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>320.0%</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3208,26 +3226,28 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Liq. corrente</t>
-        </is>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>0.0261</v>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>211.0%</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3263,25 +3283,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>D.Y</t>
-        </is>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>0.0696</v>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>3054.0%</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3313,25 +3335,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>P/L</t>
-        </is>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>0.07389999999999999</v>
+          <t>Preço/Ativos</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>44.0%</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3363,25 +3387,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PEG Ratio</t>
-        </is>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>0.0436</v>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>657.0%</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>bom</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3413,25 +3439,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>P/VP</t>
-        </is>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>0.012</v>
+          <t>PSR</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>94.0%</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3463,25 +3491,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>EV/EBITDA</t>
-        </is>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>0.06509999999999999</v>
+          <t>Preço/Capital de giro</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>-4106.0%</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3513,25 +3543,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>EV/EBIT</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>0.0707</v>
+          <t>Preço/Ativ circ liq</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>-92.0%</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3558,7 +3590,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3573,11 +3605,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>P/EBITDA</t>
+          <t>M. Liquida</t>
         </is>
       </c>
       <c r="E63" s="1" t="n">
-        <v>0.0624</v>
+        <v>1.7293</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3608,7 +3640,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3623,11 +3655,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>P/EBIT</t>
+          <t>M. EBIT</t>
         </is>
       </c>
       <c r="E64" s="1" t="n">
-        <v>0.0677</v>
+        <v>1.8874</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3658,7 +3690,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3673,11 +3705,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VPA</t>
+          <t>M. EBITDA</t>
         </is>
       </c>
       <c r="E65" s="1" t="n">
-        <v>0.07969999999999999</v>
+        <v>2.0487</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3708,7 +3740,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Eficiência</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3723,11 +3755,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>P/Ativo</t>
+          <t>M. Bruta</t>
         </is>
       </c>
       <c r="E66" s="1" t="n">
-        <v>0.009300000000000001</v>
+        <v>0.3014</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3758,7 +3790,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3773,11 +3805,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LPA</t>
+          <t>Dív. líquida/PL</t>
         </is>
       </c>
       <c r="E67" s="1" t="n">
-        <v>0.0129</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3808,7 +3840,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3823,11 +3855,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>P/SR</t>
+          <t>Dív. líquida/EBITDA</t>
         </is>
       </c>
       <c r="E68" s="1" t="n">
-        <v>0.1278</v>
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3858,7 +3890,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Valuation</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3873,15 +3905,15 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>P/Ativo Circ. Liq.</t>
+          <t>Dív. líquida/EBIT</t>
         </is>
       </c>
       <c r="E69" s="1" t="n">
-        <v>-0.0105</v>
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Valor fora do alcance definido</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3908,7 +3940,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3923,11 +3955,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Valor atual</t>
+          <t>PL/Ativos</t>
         </is>
       </c>
       <c r="E70" s="1" t="n">
-        <v>0.09570000000000001</v>
+        <v>0.0077</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3958,7 +3990,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3973,11 +4005,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TAG ALONG</t>
+          <t>Passivos/Ativos</t>
         </is>
       </c>
       <c r="E71" s="1" t="n">
-        <v>0.8</v>
+        <v>0.0019</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4008,7 +4040,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Endividamento</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4023,15 +4055,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LIQUIDEZ MEDIA DIARIA</t>
+          <t>Liq. corrente</t>
         </is>
       </c>
       <c r="E72" s="1" t="n">
-        <v>2190571.2576</v>
+        <v>0.0261</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4058,7 +4090,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4073,15 +4105,15 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Patrimonio liquido</t>
+          <t>D.Y</t>
         </is>
       </c>
       <c r="E73" s="1" t="n">
-        <v>864630000</v>
+        <v>0.0687</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4108,7 +4140,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4123,15 +4155,15 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ativos</t>
+          <t>P/L</t>
         </is>
       </c>
       <c r="E74" s="1" t="n">
-        <v>1118980000</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4158,7 +4190,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4173,15 +4205,15 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Ativo circulante</t>
+          <t>PEG Ratio</t>
         </is>
       </c>
       <c r="E75" s="1" t="n">
-        <v>135200000</v>
+        <v>0.0442</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4208,7 +4240,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4223,15 +4255,15 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Divida bruta</t>
+          <t>P/VP</t>
         </is>
       </c>
       <c r="E76" s="1" t="n">
-        <v>131810000</v>
+        <v>0.0122</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4258,7 +4290,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4273,15 +4305,15 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Disponibilidade</t>
+          <t>EV/EBITDA</t>
         </is>
       </c>
       <c r="E77" s="1" t="n">
-        <v>89760000</v>
+        <v>0.0659</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4308,7 +4340,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4323,15 +4355,15 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Divida liquida</t>
+          <t>EV/EBIT</t>
         </is>
       </c>
       <c r="E78" s="1" t="n">
-        <v>42050000</v>
+        <v>0.07150000000000001</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4358,7 +4390,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4373,15 +4405,15 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Valor de mercado</t>
+          <t>P/EBITDA</t>
         </is>
       </c>
       <c r="E79" s="1" t="n">
-        <v>1041178186.14</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4408,7 +4440,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4423,15 +4455,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Valor de firma</t>
+          <t>P/EBIT</t>
         </is>
       </c>
       <c r="E80" s="1" t="n">
-        <v>1083228186.14</v>
+        <v>0.06860000000000001</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4458,7 +4490,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4473,11 +4505,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Free Float</t>
+          <t>VPA</t>
         </is>
       </c>
       <c r="E81" s="1" t="n">
-        <v>0.6573</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4508,7 +4540,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4523,11 +4555,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ROE</t>
+          <t>P/Ativo</t>
         </is>
       </c>
       <c r="E82" s="1" t="n">
-        <v>0.1624</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4558,7 +4590,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4573,11 +4605,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ROA</t>
+          <t>LPA</t>
         </is>
       </c>
       <c r="E83" s="1" t="n">
-        <v>0.1255</v>
+        <v>0.0129</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4608,7 +4640,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4623,11 +4655,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ROIC</t>
+          <t>P/SR</t>
         </is>
       </c>
       <c r="E84" s="1" t="n">
-        <v>0.1452</v>
+        <v>0.1294</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4658,7 +4690,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Rentabilidade</t>
+          <t>Valuation</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4673,15 +4705,15 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Giro ativos</t>
+          <t>P/Ativo Circ. Liq.</t>
         </is>
       </c>
       <c r="E85" s="1" t="n">
-        <v>0.0007000000000000001</v>
+        <v>-0.0107</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4708,12 +4740,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fundamentus</t>
+          <t>StausInvest</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4723,13 +4755,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="E86" s="1" t="inlineStr">
-        <is>
-          <t>16.2%</t>
-        </is>
+          <t>Valor atual</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>0.0969</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4760,12 +4790,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fundamentus</t>
+          <t>StausInvest</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4775,13 +4805,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ROIC</t>
-        </is>
-      </c>
-      <c r="E87" s="1" t="inlineStr">
-        <is>
-          <t>0.7000000000000001%</t>
-        </is>
+          <t>TAG ALONG</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>0.8</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4812,12 +4840,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fundamentus</t>
+          <t>StausInvest</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4827,17 +4855,15 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="E88" s="1" t="inlineStr">
-        <is>
-          <t>7.000000000000001%</t>
-        </is>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>2190571.2576</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4864,12 +4890,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fundamentus</t>
+          <t>StausInvest</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4879,17 +4905,15 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Margem bruta</t>
-        </is>
-      </c>
-      <c r="E89" s="1" t="inlineStr">
-        <is>
-          <t>30.099999999999998%</t>
-        </is>
+          <t>Patrimonio liquido</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>864630000</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Métrica não reconhecida</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4916,12 +4940,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fundamentus</t>
+          <t>StausInvest</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4931,17 +4955,15 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Margem EBIT</t>
-        </is>
-      </c>
-      <c r="E90" s="1" t="inlineStr">
-        <is>
-          <t>8.6%</t>
-        </is>
+          <t>Ativos</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>1118980000</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Métrica não reconhecida</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4968,50 +4990,1692 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Ativo circulante</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>135200000</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Divida bruta</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>131810000</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Disponibilidade</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>89760000</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Divida liquida</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>42050000</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Valor de mercado</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>1053513449.98</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Valor de firma</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>1095563449.98</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Free Float</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>0.6573</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>0.1624</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>0.1452</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Rentabilidade</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>StausInvest</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>0.0007000000000000001</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>16.2%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>0.7000000000000001%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>7.000000000000001%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Margem bruta</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>30.099999999999998%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Margem EBIT</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>8.6%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Eficiência</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Margem líquida</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>175.6%</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
           <t>Endividamento</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Fundamentus</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Margem líquida</t>
-        </is>
-      </c>
-      <c r="E91" s="1" t="inlineStr">
-        <is>
-          <t>175.6%</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Dívida líquida/Patrim</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
         <is>
           <t>Métrica não reconhecida</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Dívida líquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>210.0%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>77.0%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Endividamento</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Liquidez corrente</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>261.0%</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Dividend Yield</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>6.6000000000000005%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>739.0%</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>120.0%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>5386.0%</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="inlineStr">
+        <is>
+          <t>15515.0%</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="inlineStr">
+        <is>
+          <t>14911.000000000002%</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>otimo</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="inlineStr">
+        <is>
+          <t>797.0%</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Preço/Ativos</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="inlineStr">
+        <is>
+          <t>93.0%</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
+        <is>
+          <t>129.0%</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>baixo</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>PSR</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="inlineStr">
+        <is>
+          <t>1278.0%</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Preço/Capital de giro</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="inlineStr">
+        <is>
+          <t>1243.0%</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Mínimo = 10, Máximo = inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Valuation</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Fundamentus</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Preço/Ativ circ liq</t>
+        </is>
+      </c>
+      <c r="E123" s="1" t="inlineStr">
+        <is>
+          <t>-1350.0%</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Métrica não reconhecida</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Mínimo = 0, Máximo = 3</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Mínimo = 3, Máximo = 6</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Mínimo = 6, Máximo = 10</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
         </is>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.1681</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.3248</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.4589</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5179</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0037</v>
+        <v>0.0064</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0063</v>
+        <v>0.0036</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.009399999999999999</v>
+        <v>0.0217</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.2145</v>
+        <v>0.0355</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.0561</v>
+        <v>0.0919</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-0.0015</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Valor fora do alcance definido</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.012</v>
+        <v>0.0639</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.0321</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.0453</v>
+        <v>0.0815</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.0205</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.029</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.3065</v>
+        <v>0.0613</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.0044</v>
+        <v>0.0408</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.06570000000000001</v>
+        <v>0.0426</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0.009399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.0052</v>
+        <v>-0.06660000000000001</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.3681</v>
+        <v>0.3911</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="E27" s="1" t="n">
-        <v>9350860.9957</v>
+        <v>1698170.8238</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="E28" s="1" t="n">
-        <v>3950530000</v>
+        <v>122519010</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="E29" s="1" t="n">
-        <v>10778490000</v>
+        <v>192138870</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="E30" s="1" t="n">
-        <v>1673710000</v>
+        <v>74542520</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1965,11 +1965,11 @@
         </is>
       </c>
       <c r="E31" s="1" t="n">
-        <v>3221570000</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="E32" s="1" t="n">
-        <v>778380000</v>
+        <v>61861250</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2065,11 +2065,11 @@
         </is>
       </c>
       <c r="E33" s="1" t="n">
-        <v>2443190000</v>
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>otimo</t>
+          <t>baixo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="E34" s="1" t="n">
-        <v>4965830016.23</v>
+        <v>784400000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="E35" s="1" t="n">
-        <v>7409020016.23</v>
+        <v>784400000</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.6125</v>
+        <v>0.3187</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.2144</v>
+        <v>0.6951000000000001</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.0786</v>
+        <v>0.4432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.1831</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.004699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3590,30 +3590,32 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>M. Liquida</t>
-        </is>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>1.7293</v>
+          <t>Cotação</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>3683.0%</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3640,30 +3642,32 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>M. EBIT</t>
-        </is>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>1.8874</v>
+          <t>Volume negociado por dia</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>108758000000.0%</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3690,30 +3694,32 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>M. EBITDA</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>2.0487</v>
+          <t>Patrimônio líquido</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>39365500000000.0%</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3740,30 +3746,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Eficiência</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>M. Bruta</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>0.3014</v>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>107785000000000.0%</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3790,30 +3798,32 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Dív. líquida/PL</t>
-        </is>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>0</v>
+          <t>Ativo circulante</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>16737100000000.0%</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3840,30 +3850,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBITDA</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>0</v>
+          <t>Dívida bruta</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>32215700000000.0%</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3890,30 +3902,32 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBIT</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>0</v>
+          <t>Disponibilidades</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>7783800000000.0%</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3940,30 +3954,32 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PL/Ativos</t>
-        </is>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>0.0077</v>
+          <t>Dívida líquida</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>24431900000000.0%</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Métrica não reconhecida</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3990,30 +4006,32 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Endividamento</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>StausInvest</t>
+          <t>Fundamentus</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>PETR4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Passivos/Ativos</t>
-        </is>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>0.0019</v>
+          <t>Valor de mercado</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>47469200000000.0%</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4032,2650 +4050,6 @@
         </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Liq. corrente</t>
-        </is>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>D.Y</t>
-        </is>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>0.0687</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>P/L</t>
-        </is>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>0.07480000000000001</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>PEG Ratio</t>
-        </is>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>0.0442</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>P/VP</t>
-        </is>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>0.0122</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>EV/EBITDA</t>
-        </is>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>0.0659</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>EV/EBIT</t>
-        </is>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>0.07150000000000001</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>P/EBITDA</t>
-        </is>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>0.06320000000000001</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>P/EBIT</t>
-        </is>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>0.06860000000000001</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>VPA</t>
-        </is>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>0.07969999999999999</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>P/Ativo</t>
-        </is>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>0.009399999999999999</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>LPA</t>
-        </is>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>P/SR</t>
-        </is>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>0.1294</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>P/Ativo Circ. Liq.</t>
-        </is>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>-0.0107</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Valor fora do alcance definido</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Valor atual</t>
-        </is>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>0.0969</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>TAG ALONG</t>
-        </is>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>LIQUIDEZ MEDIA DIARIA</t>
-        </is>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>2190571.2576</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Patrimonio liquido</t>
-        </is>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>864630000</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>1118980000</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Ativo circulante</t>
-        </is>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>135200000</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Divida bruta</t>
-        </is>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>131810000</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Disponibilidade</t>
-        </is>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>89760000</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Divida liquida</t>
-        </is>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>42050000</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Valor de mercado</t>
-        </is>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>1053513449.98</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Valor de firma</t>
-        </is>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>1095563449.98</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Free Float</t>
-        </is>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>0.6573</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>0.1624</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>ROA</t>
-        </is>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>0.1255</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>ROIC</t>
-        </is>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>0.1452</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Rentabilidade</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>StausInvest</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>0.0007000000000000001</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="E102" s="1" t="inlineStr">
-        <is>
-          <t>16.2%</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>ROIC</t>
-        </is>
-      </c>
-      <c r="E103" s="1" t="inlineStr">
-        <is>
-          <t>0.7000000000000001%</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="E104" s="1" t="inlineStr">
-        <is>
-          <t>7.000000000000001%</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Margem bruta</t>
-        </is>
-      </c>
-      <c r="E105" s="1" t="inlineStr">
-        <is>
-          <t>30.099999999999998%</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Margem EBIT</t>
-        </is>
-      </c>
-      <c r="E106" s="1" t="inlineStr">
-        <is>
-          <t>8.6%</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Margem líquida</t>
-        </is>
-      </c>
-      <c r="E107" s="1" t="inlineStr">
-        <is>
-          <t>175.6%</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Dívida líquida/Patrim</t>
-        </is>
-      </c>
-      <c r="E108" s="1" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Dívida líquida/EBITDA</t>
-        </is>
-      </c>
-      <c r="E109" s="1" t="inlineStr">
-        <is>
-          <t>210.0%</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>PL/Ativos</t>
-        </is>
-      </c>
-      <c r="E110" s="1" t="inlineStr">
-        <is>
-          <t>77.0%</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Liquidez corrente</t>
-        </is>
-      </c>
-      <c r="E111" s="1" t="inlineStr">
-        <is>
-          <t>261.0%</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Dividend Yield</t>
-        </is>
-      </c>
-      <c r="E112" s="1" t="inlineStr">
-        <is>
-          <t>6.6000000000000005%</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>P/L</t>
-        </is>
-      </c>
-      <c r="E113" s="1" t="inlineStr">
-        <is>
-          <t>739.0%</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>P/VP</t>
-        </is>
-      </c>
-      <c r="E114" s="1" t="inlineStr">
-        <is>
-          <t>120.0%</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>EV/EBITDA</t>
-        </is>
-      </c>
-      <c r="E115" s="1" t="inlineStr">
-        <is>
-          <t>5386.0%</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>EV/EBIT</t>
-        </is>
-      </c>
-      <c r="E116" s="1" t="inlineStr">
-        <is>
-          <t>15515.0%</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>P/EBIT</t>
-        </is>
-      </c>
-      <c r="E117" s="1" t="inlineStr">
-        <is>
-          <t>14911.000000000002%</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>VPA</t>
-        </is>
-      </c>
-      <c r="E118" s="1" t="inlineStr">
-        <is>
-          <t>797.0%</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Preço/Ativos</t>
-        </is>
-      </c>
-      <c r="E119" s="1" t="inlineStr">
-        <is>
-          <t>93.0%</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>LPA</t>
-        </is>
-      </c>
-      <c r="E120" s="1" t="inlineStr">
-        <is>
-          <t>129.0%</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>PSR</t>
-        </is>
-      </c>
-      <c r="E121" s="1" t="inlineStr">
-        <is>
-          <t>1278.0%</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Preço/Capital de giro</t>
-        </is>
-      </c>
-      <c r="E122" s="1" t="inlineStr">
-        <is>
-          <t>1243.0%</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>ITSA4</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Preço/Ativ circ liq</t>
-        </is>
-      </c>
-      <c r="E123" s="1" t="inlineStr">
-        <is>
-          <t>-1350.0%</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
         <is>
           <t>Mínimo = 10, Máximo = inf</t>
         </is>

--- a/StatusInvest2.xlsx
+++ b/StatusInvest2.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiEficiência" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndiRentabilidade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEndividamento" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndValuation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IndEmpresa" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +448,57 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Fonte</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>M. Líquida</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Agrupador</t>
         </is>
       </c>
@@ -515,7 +570,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.1681</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -565,7 +620,7 @@
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.3248</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -615,7 +670,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.4589</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -665,7 +720,7 @@
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>0.5179</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -865,7 +920,7 @@
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0064</v>
+        <v>0.0037</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -915,7 +970,7 @@
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0036</v>
+        <v>0.0063</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -965,7 +1020,7 @@
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.0217</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1015,7 +1070,7 @@
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.0355</v>
+        <v>0.2153</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1065,7 +1120,7 @@
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.0919</v>
+        <v>0.0559</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1115,11 +1170,11 @@
         </is>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.008199999999999999</v>
+        <v>-0.0015</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>Valor fora do alcance definido</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1165,7 +1220,7 @@
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.012</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1215,7 +1270,7 @@
         </is>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0</v>
+        <v>0.0322</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1265,7 +1320,7 @@
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.0815</v>
+        <v>0.0455</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1315,7 +1370,7 @@
         </is>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0</v>
+        <v>0.0205</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1365,7 +1420,7 @@
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.0289</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1415,7 +1470,7 @@
         </is>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.0613</v>
+        <v>0.3065</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1465,7 +1520,7 @@
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.0408</v>
+        <v>0.0044</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1515,7 +1570,7 @@
         </is>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.0426</v>
+        <v>0.06570000000000001</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1565,7 +1620,7 @@
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1615,7 +1670,7 @@
         </is>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.06660000000000001</v>
+        <v>-0.0052</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1665,7 +1720,7 @@
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.3911</v>
+        <v>0.3667</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1765,7 +1820,7 @@
         </is>
       </c>
       <c r="E27" s="1" t="n">
-        <v>1698170.8238</v>
+        <v>9215290.644099999</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1815,7 +1870,7 @@
         </is>
       </c>
       <c r="E28" s="1" t="n">
-        <v>122519010</v>
+        <v>3950530000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1865,7 +1920,7 @@
         </is>
       </c>
       <c r="E29" s="1" t="n">
-        <v>192138870</v>
+        <v>10778490000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1915,7 +1970,7 @@
         </is>
       </c>
       <c r="E30" s="1" t="n">
-        <v>74542520</v>
+        <v>1673710000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1965,11 +2020,11 @@
         </is>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0</v>
+        <v>3221570000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2015,7 +2070,7 @@
         </is>
       </c>
       <c r="E32" s="1" t="n">
-        <v>61861250</v>
+        <v>778380000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2065,11 +2120,11 @@
         </is>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0</v>
+        <v>2443190000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>baixo</t>
+          <t>otimo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2115,7 +2170,7 @@
         </is>
       </c>
       <c r="E34" s="1" t="n">
-        <v>784400000</v>
+        <v>5001444589.14</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2165,7 +2220,7 @@
         </is>
       </c>
       <c r="E35" s="1" t="n">
-        <v>784400000</v>
+        <v>7444634589.14</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2215,7 +2270,7 @@
         </is>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.3187</v>
+        <v>0.6125</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2265,7 +2320,7 @@
         </is>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.6951000000000001</v>
+        <v>0.2144</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2315,7 +2370,7 @@
         </is>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.4432</v>
+        <v>0.0786</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2365,7 +2420,7 @@
         </is>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0</v>
+        <v>0.1831</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2415,7 +2470,7 @@
         </is>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2443,1615 +2498,281 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>21.5%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>ROIC</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>23.200000000000003%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>47.0%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Margem bruta</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>51.800000000000004%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Margem EBIT</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>44.6%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Eficiência</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Margem líquida</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>16.900000000000002%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Dívida líquida/Patrim</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>62.0%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Dívida líquida/EBITDA</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>83.0%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fonte</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/PL</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBIT</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>PL/Ativos</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>37.0%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Endividamento</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Liquidez corrente</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>94.0%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Dividend Yield</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fonte</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>D.Y</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>P/L</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t>560.0%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEG Ratio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>P/VP</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
-        <is>
-          <t>121.0%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t>244.0%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>EV/EBIT</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t>320.0%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>P/EBIT</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
-        <is>
-          <t>211.0%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>baixo</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>VPA</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
-        <is>
-          <t>3054.0%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Preço/Ativos</t>
-        </is>
-      </c>
-      <c r="E58" s="1" t="inlineStr">
-        <is>
-          <t>44.0%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>P/Ativo</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>LPA</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
-        <is>
-          <t>657.0%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>PSR</t>
-        </is>
-      </c>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t>94.0%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Preço/Capital de giro</t>
-        </is>
-      </c>
-      <c r="E61" s="1" t="inlineStr">
-        <is>
-          <t>-4106.0%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Valuation</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Preço/Ativ circ liq</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>-92.0%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Cotação</t>
-        </is>
-      </c>
-      <c r="E63" s="1" t="inlineStr">
-        <is>
-          <t>3683.0%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Volume negociado por dia</t>
-        </is>
-      </c>
-      <c r="E64" s="1" t="inlineStr">
-        <is>
-          <t>108758000000.0%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Patrimônio líquido</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="inlineStr">
-        <is>
-          <t>39365500000000.0%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="inlineStr">
-        <is>
-          <t>107785000000000.0%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>P/SR</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>P/Ativo Circ. Liq.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fonte</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Valor atual</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Min. 52 semanas</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Max. 52 semanas</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dividend Yield</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Valorizacao (12m)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>TAG ALONG</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>PARTICIPACAO NO IBOV</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>MERCADO DE OPCOES</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Patrimonio liquido</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Ativos</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
         <is>
           <t>Ativo circulante</t>
         </is>
       </c>
-      <c r="E67" s="1" t="inlineStr">
-        <is>
-          <t>16737100000000.0%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Dívida bruta</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t>32215700000000.0%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Disponibilidades</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="inlineStr">
-        <is>
-          <t>7783800000000.0%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Dívida líquida</t>
-        </is>
-      </c>
-      <c r="E70" s="1" t="inlineStr">
-        <is>
-          <t>24431900000000.0%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Métrica não reconhecida</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Fundamentus</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Divida bruta</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Disponibilidade</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Divida liquida</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
         <is>
           <t>Valor de mercado</t>
         </is>
       </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t>47469200000000.0%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>otimo</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Mínimo = 0, Máximo = 3</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Mínimo = 3, Máximo = 6</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Mínimo = 6, Máximo = 10</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Mínimo = 10, Máximo = inf</t>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Valor de firma</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Free Float</t>
         </is>
       </c>
     </row>
